--- a/data/trans_orig/P50A_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P50A_2-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>3125</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8553</v>
+        <v>8776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007095590740052097</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002058810201765525</v>
+        <v>0.002074590838372495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01941659953231717</v>
+        <v>0.01992311676825662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>3125</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8499</v>
+        <v>8526</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003635827340980128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001064714529058302</v>
+        <v>0.001060105800086847</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009887356276999902</v>
+        <v>0.00991769685482834</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4927</v>
+        <v>4896</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002217021985445852</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01118604008175381</v>
+        <v>0.01111609398533757</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5507</v>
+        <v>4924</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00113601663984624</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.006406461159770557</v>
+        <v>0.005727656903029552</v>
       </c>
     </row>
     <row r="6">
@@ -868,19 +868,19 @@
         <v>8177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3693</v>
+        <v>3995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14549</v>
+        <v>16546</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01856481483490684</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008383903575645901</v>
+        <v>0.009068750175082962</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03303019645861117</v>
+        <v>0.03756449623886731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -889,19 +889,19 @@
         <v>5914</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11833</v>
+        <v>11844</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01410902960744963</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004782189342816369</v>
+        <v>0.00477831871462979</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02823112259540332</v>
+        <v>0.02825696887135763</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -910,19 +910,19 @@
         <v>14091</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7941</v>
+        <v>7151</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23498</v>
+        <v>22787</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01639220324993134</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009237157079366662</v>
+        <v>0.008319055148393383</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02733553013061907</v>
+        <v>0.02650845662600082</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>428199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>419358</v>
+        <v>419071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>433626</v>
+        <v>433364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9721225724395952</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9520527052965477</v>
+        <v>0.9514005074358741</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.984443758872572</v>
+        <v>0.983848257940895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>405</v>
@@ -960,19 +960,19 @@
         <v>413234</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>407315</v>
+        <v>407304</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>417144</v>
+        <v>417145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9858909703925504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9717688774045968</v>
+        <v>0.9717430311286424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9952178106571836</v>
+        <v>0.9952216812853703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>826</v>
@@ -981,19 +981,19 @@
         <v>841433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>831521</v>
+        <v>831353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>848537</v>
+        <v>848948</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9788359527692423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9673054002461723</v>
+        <v>0.9671106501219895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9870997816162856</v>
+        <v>0.9875786972221727</v>
       </c>
     </row>
     <row r="8">
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6284</v>
+        <v>6372</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002664578123397913</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009211600306895924</v>
+        <v>0.009340942394401771</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6049</v>
+        <v>6387</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001414749933032388</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004708197871013078</v>
+        <v>0.004971393452860869</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6841</v>
+        <v>6858</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002906518347487585</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01002838589348674</v>
+        <v>0.01005348675608751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5666</v>
+        <v>4696</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001551845571944997</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00940214532269306</v>
+        <v>0.007793217250083047</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1190,19 +1190,19 @@
         <v>2918</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7769</v>
+        <v>7831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002271105105621456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007271767605905129</v>
+        <v>0.000726563337780872</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006047019863378706</v>
+        <v>0.006095722822508759</v>
       </c>
     </row>
     <row r="11">
@@ -1219,19 +1219,19 @@
         <v>8178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3524</v>
+        <v>3593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17141</v>
+        <v>16557</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0119893141190024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005165629179465712</v>
+        <v>0.005267149562051235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02512830188853993</v>
+        <v>0.02427227708110192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9404</v>
+        <v>10067</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004736227217471325</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0156045091701243</v>
+        <v>0.01670532132262746</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1261,19 +1261,19 @@
         <v>11032</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5609</v>
+        <v>5349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21119</v>
+        <v>21304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008587232417173934</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004365717009271343</v>
+        <v>0.004163362762653472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01643802385537515</v>
+        <v>0.01658185420423758</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>670155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>660815</v>
+        <v>661565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>675821</v>
+        <v>675814</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9824395894101121</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9687464555935495</v>
+        <v>0.9698462457912205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9907452633131328</v>
+        <v>0.9907346592373142</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>561</v>
@@ -1311,19 +1311,19 @@
         <v>598827</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>592101</v>
+        <v>591209</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>601688</v>
+        <v>601680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9937119272105837</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9825512825224053</v>
+        <v>0.9810707076520067</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9984597415826104</v>
+        <v>0.9984467417455584</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1212</v>
@@ -1332,19 +1332,19 @@
         <v>1268982</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1257714</v>
+        <v>1258849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1276006</v>
+        <v>1275836</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9877269125441722</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9789559175067042</v>
+        <v>0.9798397514961846</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9931937912030081</v>
+        <v>0.9930618129182947</v>
       </c>
     </row>
     <row r="13">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6157</v>
+        <v>5866</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002472833881235475</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009150621845071984</v>
+        <v>0.008717603985079998</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5289</v>
+        <v>4464</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001447629517394784</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.007643462801181887</v>
+        <v>0.006451660309771234</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1528,16 +1528,16 @@
         <v>726</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8159</v>
+        <v>7785</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001953059596621444</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0005321317040850084</v>
+        <v>0.0005321471478613473</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.00597804056804901</v>
+        <v>0.005704028563107122</v>
       </c>
     </row>
     <row r="16">
@@ -1554,19 +1554,19 @@
         <v>5014</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1251</v>
+        <v>1817</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13822</v>
+        <v>14607</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007452469246992352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001859757545356152</v>
+        <v>0.002700141590536032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02054263062719475</v>
+        <v>0.02170864562224204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1575,19 +1575,19 @@
         <v>2971</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7961</v>
+        <v>8017</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004293826284924891</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001328474839530709</v>
+        <v>0.001334790172450142</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01150503504256861</v>
+        <v>0.01158691127980894</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1596,19 +1596,19 @@
         <v>7985</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3202</v>
+        <v>3265</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17416</v>
+        <v>17153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005851050599290537</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002345835095579457</v>
+        <v>0.002392635117041532</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01276128827551488</v>
+        <v>0.01256840282578727</v>
       </c>
     </row>
     <row r="17">
@@ -1625,19 +1625,19 @@
         <v>666165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>657852</v>
+        <v>658199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>670281</v>
+        <v>670141</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9900746968717722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9777196196339606</v>
+        <v>0.9782355413702144</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961915555287877</v>
+        <v>0.9959841232304012</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>646</v>
@@ -1646,19 +1646,19 @@
         <v>687965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>682774</v>
+        <v>682106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>690936</v>
+        <v>690994</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9942585441976803</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9867565611076429</v>
+        <v>0.9857904960139712</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9985516305487574</v>
+        <v>0.9986351251756815</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1283</v>
@@ -1667,19 +1667,19 @@
         <v>1354130</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1345143</v>
+        <v>1344488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1359828</v>
+        <v>1359304</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.992195889804088</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9856111005941172</v>
+        <v>0.9851312027216309</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9963705870476944</v>
+        <v>0.9959868717807908</v>
       </c>
     </row>
     <row r="18">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7185</v>
+        <v>7267</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003349906623684876</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01176341018333758</v>
+        <v>0.01189643662855941</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7071</v>
+        <v>7433</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001678426921559798</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.005800196598155238</v>
+        <v>0.006096631834001982</v>
       </c>
     </row>
     <row r="22">
@@ -1941,7 +1941,7 @@
         <v>608784</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>603645</v>
+        <v>603563</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>610830</v>
@@ -1950,7 +1950,7 @@
         <v>0.9966500933763152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9882365898166625</v>
+        <v>0.9881035633714406</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>1217085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1212060</v>
+        <v>1211698</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>1219131</v>
@@ -1971,7 +1971,7 @@
         <v>0.9983215730784402</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9941998034018451</v>
+        <v>0.9939033681659982</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2160,19 +2160,19 @@
         <v>5135</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1053</v>
+        <v>2013</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11296</v>
+        <v>11412</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0120516828908554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002471064644925063</v>
+        <v>0.004725228916494453</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02651175131292407</v>
+        <v>0.02678430205960889</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5201</v>
+        <v>5438</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002412787591477385</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01207331538935586</v>
+        <v>0.01262343434979095</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2202,19 +2202,19 @@
         <v>6174</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3043</v>
+        <v>2049</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14365</v>
+        <v>12485</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00720559550219364</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003550932021298269</v>
+        <v>0.002390779821107923</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0167642849343056</v>
+        <v>0.01456998982771532</v>
       </c>
     </row>
     <row r="27">
@@ -2231,19 +2231,19 @@
         <v>420947</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>414786</v>
+        <v>414670</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>425029</v>
+        <v>424069</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9879483171091445</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.973488248687076</v>
+        <v>0.9732156979403911</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9975289353550749</v>
+        <v>0.9952747710835055</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>389</v>
@@ -2252,7 +2252,7 @@
         <v>429780</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>425618</v>
+        <v>425381</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>430819</v>
@@ -2261,7 +2261,7 @@
         <v>0.9975872124085227</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.987926684610644</v>
+        <v>0.9873765656502109</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -2273,19 +2273,19 @@
         <v>850727</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>842536</v>
+        <v>844416</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>853858</v>
+        <v>854852</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9927944044978063</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9832357150656943</v>
+        <v>0.9854300101722846</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9964490679787017</v>
+        <v>0.9976092201788921</v>
       </c>
     </row>
     <row r="28">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10528</v>
+        <v>10390</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.006422405830705571</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03513735882579856</v>
+        <v>0.03467703531537592</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10956</v>
+        <v>9664</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003057985412576976</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0174107100769951</v>
+        <v>0.01535718802928309</v>
       </c>
     </row>
     <row r="32">
@@ -2534,7 +2534,7 @@
         <v>297701</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>289097</v>
+        <v>289235</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>299625</v>
@@ -2543,7 +2543,7 @@
         <v>0.9935775941692945</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.964862641174202</v>
+        <v>0.9653229646846239</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>627351</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>618319</v>
+        <v>619611</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>629275</v>
@@ -2577,7 +2577,7 @@
         <v>0.996942014587423</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9825892899230058</v>
+        <v>0.984642811970717</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -2935,19 +2935,19 @@
         <v>4943</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>11096</v>
+        <v>10865</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001472270383916914</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0005453310608938806</v>
+        <v>0.00054287636245318</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.003304789747525203</v>
+        <v>0.003236112905142191</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -2969,19 +2969,19 @@
         <v>4943</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1807</v>
+        <v>1825</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>10954</v>
+        <v>11136</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0007307523325657262</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0002670705145496063</v>
+        <v>0.0002698368074003143</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001619365655805675</v>
+        <v>0.001646320023808654</v>
       </c>
     </row>
     <row r="40">
@@ -2998,19 +2998,19 @@
         <v>4623</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1034</v>
+        <v>1773</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10563</v>
+        <v>11389</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001376947980237191</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.000308105350030622</v>
+        <v>0.0005281536289268225</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.003146025843631678</v>
+        <v>0.003392315832686092</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6756</v>
+        <v>7731</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0005685044069917229</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.001983111449467761</v>
+        <v>0.002269187279033626</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -3040,19 +3040,19 @@
         <v>6560</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2860</v>
+        <v>2611</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13567</v>
+        <v>12090</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0009697703927444022</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0004228317915349355</v>
+        <v>0.0003860561376406319</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.002005715929513579</v>
+        <v>0.001787284901336129</v>
       </c>
     </row>
     <row r="41">
@@ -3069,19 +3069,19 @@
         <v>28429</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18086</v>
+        <v>18446</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>42596</v>
+        <v>42069</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008467587644503722</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005386782456711061</v>
+        <v>0.005494050204399616</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01268712289297392</v>
+        <v>0.01253000566709417</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3090,19 +3090,19 @@
         <v>14825</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>8783</v>
+        <v>7914</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24755</v>
+        <v>23854</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.004351364805785372</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002578055565459331</v>
+        <v>0.002322960422268654</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.007266002885027175</v>
+        <v>0.007001633430598481</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -3111,19 +3111,19 @@
         <v>43254</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>30689</v>
+        <v>31688</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>58804</v>
+        <v>60930</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006394426646607878</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004536950838139364</v>
+        <v>0.0046846173640552</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008693238561115157</v>
+        <v>0.009007574138601905</v>
       </c>
     </row>
     <row r="42">
@@ -3140,19 +3140,19 @@
         <v>3319440</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3303935</v>
+        <v>3305010</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3332114</v>
+        <v>3331236</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9886831939913422</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9840651085139377</v>
+        <v>0.9843853701452134</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9924582465484286</v>
+        <v>0.9921968479551507</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3142</v>
@@ -3161,19 +3161,19 @@
         <v>3390137</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3379951</v>
+        <v>3380192</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3396989</v>
+        <v>3397286</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9950801307872229</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9920903653755587</v>
+        <v>0.9921611097935504</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9970914395578395</v>
+        <v>0.9971786222826072</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6253</v>
@@ -3182,19 +3182,19 @@
         <v>6709577</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6691715</v>
+        <v>6691446</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6724010</v>
+        <v>6722711</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.991905050628082</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9892643630682907</v>
+        <v>0.9892247076510332</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9940387000283887</v>
+        <v>0.9938466919579966</v>
       </c>
     </row>
     <row r="43">
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5633</v>
+        <v>5289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002584115420484379</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01373742176350377</v>
+        <v>0.01289825509235634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6393</v>
+        <v>5777</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001342165143468196</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008096812580519695</v>
+        <v>0.007317312709509133</v>
       </c>
     </row>
     <row r="6">
@@ -3639,19 +3639,19 @@
         <v>3600</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9706</v>
+        <v>11146</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00877879243308873</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002652221580570568</v>
+        <v>0.002671068788243884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02366821837700183</v>
+        <v>0.02718077465145483</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6377</v>
+        <v>6548</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004858948907088113</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01680591092660091</v>
+        <v>0.0172567537865116</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3681,19 +3681,19 @@
         <v>5444</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2015</v>
+        <v>1938</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11749</v>
+        <v>12710</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00689487861314642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002552278705474696</v>
+        <v>0.002454751059521616</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01488104590021726</v>
+        <v>0.01609763307217059</v>
       </c>
     </row>
     <row r="7">
@@ -3710,19 +3710,19 @@
         <v>405418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>398832</v>
+        <v>398248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>408959</v>
+        <v>408964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9886370921464269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.972576542195515</v>
+        <v>0.9711513702312602</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9972719312532506</v>
+        <v>0.9972823155044311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>385</v>
@@ -3731,7 +3731,7 @@
         <v>377615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>373082</v>
+        <v>372911</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>379459</v>
@@ -3740,7 +3740,7 @@
         <v>0.9951410510929118</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9831940890733988</v>
+        <v>0.9827432462134882</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -3752,19 +3752,19 @@
         <v>783035</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>776475</v>
+        <v>775552</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>786762</v>
+        <v>786775</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9917629562433854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9834542722262436</v>
+        <v>0.9822863887909715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9964844831547152</v>
+        <v>0.9965007260205323</v>
       </c>
     </row>
     <row r="8">
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5056</v>
+        <v>5048</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001816153935791439</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009130821298321674</v>
+        <v>0.00911555735975029</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5063</v>
+        <v>6481</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0008827467431333131</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00444358730670572</v>
+        <v>0.005688677757735563</v>
       </c>
     </row>
     <row r="10">
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4769</v>
+        <v>5516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001668937850012832</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008611553426419472</v>
+        <v>0.00996085199566688</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3732</v>
+        <v>5074</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0008111919494030844</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.003275162193505404</v>
+        <v>0.004453098594411067</v>
       </c>
     </row>
     <row r="11">
@@ -3982,19 +3982,19 @@
         <v>6315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2309</v>
+        <v>2097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14363</v>
+        <v>12924</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0107836585375138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003943954751540629</v>
+        <v>0.003581561536315257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02452932532043712</v>
+        <v>0.02207057099353764</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5897</v>
+        <v>4649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001676481308429444</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01064770172425076</v>
+        <v>0.008394300522283505</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -4024,19 +4024,19 @@
         <v>7243</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3056</v>
+        <v>3104</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14805</v>
+        <v>15264</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006357089357622821</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002681893975156018</v>
+        <v>0.002724321732750223</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01299406322606022</v>
+        <v>0.01339703465931564</v>
       </c>
     </row>
     <row r="12">
@@ -4053,19 +4053,19 @@
         <v>579248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>571200</v>
+        <v>572639</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>583254</v>
+        <v>583466</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9892163414624862</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9754706746795633</v>
+        <v>0.9779294290064626</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9960560452484594</v>
+        <v>0.9964184384636848</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>566</v>
@@ -4074,19 +4074,19 @@
         <v>550924</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>546034</v>
+        <v>545985</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>552862</v>
+        <v>552859</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9948384269057663</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9860087553678596</v>
+        <v>0.9859201058783829</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9983382694361576</v>
+        <v>0.9983331657922309</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1122</v>
@@ -4095,19 +4095,19 @@
         <v>1130172</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1121933</v>
+        <v>1121100</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1134503</v>
+        <v>1134511</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9919489719498408</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9847171968907873</v>
+        <v>0.9839865594003118</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9957497804340888</v>
+        <v>0.9957576339166055</v>
       </c>
     </row>
     <row r="13">
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7060</v>
+        <v>6239</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001593463016453515</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01074917593748684</v>
+        <v>0.009499632167002449</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6498</v>
+        <v>4751</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0007996478876475969</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.004964934605334828</v>
+        <v>0.003630004010149581</v>
       </c>
     </row>
     <row r="16">
@@ -4309,19 +4309,19 @@
         <v>2962</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8877</v>
+        <v>7968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00451034595304415</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001400957854813161</v>
+        <v>0.001402916658117768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01351556027979258</v>
+        <v>0.01213210139662203</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4330,19 +4330,19 @@
         <v>2843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8628</v>
+        <v>7594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004360681839007519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00141816835238029</v>
+        <v>0.001404465908173708</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01323373501264027</v>
+        <v>0.01164780277647981</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4351,19 +4351,19 @@
         <v>5805</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1927</v>
+        <v>2782</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12328</v>
+        <v>11864</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004435787813485925</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001472217246778081</v>
+        <v>0.002125941020875225</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009419714469062614</v>
+        <v>0.009065006395333605</v>
       </c>
     </row>
     <row r="17">
@@ -4380,19 +4380,19 @@
         <v>652779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>646567</v>
+        <v>647335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>655745</v>
+        <v>655760</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9938961910305023</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9844383493020166</v>
+        <v>0.9856078035572822</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9984113341666713</v>
+        <v>0.9984351814391211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>653</v>
@@ -4401,19 +4401,19 @@
         <v>649154</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>643369</v>
+        <v>644403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>651072</v>
+        <v>651081</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9956393181609925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9867662649873601</v>
+        <v>0.9883521972235203</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9985818316476197</v>
+        <v>0.9985955340918263</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1275</v>
@@ -4422,19 +4422,19 @@
         <v>1301933</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1295150</v>
+        <v>1295534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1305899</v>
+        <v>1305878</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9947645642988665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9895816536807737</v>
+        <v>0.9898753678783705</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9977947672712077</v>
+        <v>0.9977790494816139</v>
       </c>
     </row>
     <row r="18">
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5423</v>
+        <v>5405</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001714856289667305</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008573685491564835</v>
+        <v>0.008545105458947027</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5768</v>
+        <v>5439</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0008511713457734254</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004525809504529692</v>
+        <v>0.004267954267474658</v>
       </c>
     </row>
     <row r="20">
@@ -4636,19 +4636,19 @@
         <v>5158</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13226</v>
+        <v>13174</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00803545377522806</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001753850092984379</v>
+        <v>0.00174625864279496</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02060487455259767</v>
+        <v>0.02052484772228308</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5490</v>
+        <v>5967</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.001575993068138023</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.008679000433123052</v>
+        <v>0.009433544020717034</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -4678,19 +4678,19 @@
         <v>6155</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2104</v>
+        <v>2121</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14764</v>
+        <v>13860</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004829291313596325</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001650629343260056</v>
+        <v>0.00166393076796032</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01158437357751267</v>
+        <v>0.01087534502728327</v>
       </c>
     </row>
     <row r="22">
@@ -4707,19 +4707,19 @@
         <v>636711</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>628643</v>
+        <v>628695</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>640743</v>
+        <v>640748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9919645462247719</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9793951254474021</v>
+        <v>0.9794751522777159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9982461499070157</v>
+        <v>0.9982537413572051</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>585</v>
@@ -4728,7 +4728,7 @@
         <v>630487</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>626182</v>
+        <v>626160</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>632569</v>
@@ -4737,7 +4737,7 @@
         <v>0.9967091506421947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9899023788174566</v>
+        <v>0.9898676149415307</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4749,19 +4749,19 @@
         <v>1267199</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1257927</v>
+        <v>1259805</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1271557</v>
+        <v>1271418</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9943195373406303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9870442910916277</v>
+        <v>0.9885177962153813</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9977393440996635</v>
+        <v>0.9976299457391581</v>
       </c>
     </row>
     <row r="23">
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6959</v>
+        <v>6961</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00490581480900204</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01501509424520285</v>
+        <v>0.01501828502983448</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7095</v>
+        <v>7991</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002429827631058285</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.007582480904320072</v>
+        <v>0.008540116134304318</v>
       </c>
     </row>
     <row r="27">
@@ -5010,7 +5010,7 @@
         <v>461198</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>456513</v>
+        <v>456511</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>463472</v>
@@ -5019,7 +5019,7 @@
         <v>0.9950941851909979</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9849849057547971</v>
+        <v>0.9849817149701654</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -5044,7 +5044,7 @@
         <v>933475</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>928654</v>
+        <v>927758</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>935749</v>
@@ -5053,7 +5053,7 @@
         <v>0.9975701723689417</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.992417519095679</v>
+        <v>0.9914598838656957</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5113</v>
+        <v>5491</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002958557662466016</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01460678401926386</v>
+        <v>0.0156872540055346</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6225</v>
+        <v>5191</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001540440415502627</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009260102196855384</v>
+        <v>0.007721391312959925</v>
       </c>
     </row>
     <row r="30">
@@ -5258,19 +5258,19 @@
         <v>3186</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8615</v>
+        <v>8514</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.009886443058596865</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003233543285882009</v>
+        <v>0.00325163648725429</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0267351260839107</v>
+        <v>0.02642265661755083</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5410</v>
+        <v>6234</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003082009199308401</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01545549075079276</v>
+        <v>0.01781028453380181</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -5300,19 +5300,19 @@
         <v>4264</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11710</v>
+        <v>10681</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006343559627781574</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001613170536218234</v>
+        <v>0.001601183266960697</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01741873132988246</v>
+        <v>0.01588796907562217</v>
       </c>
     </row>
     <row r="32">
@@ -5329,19 +5329,19 @@
         <v>319037</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>313608</v>
+        <v>313709</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>321181</v>
+        <v>321175</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9901135569414031</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9732648739160893</v>
+        <v>0.9735773433824492</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9967664567141179</v>
+        <v>0.9967483635127456</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>327</v>
@@ -5350,7 +5350,7 @@
         <v>347904</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>343446</v>
+        <v>343520</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>350018</v>
@@ -5359,7 +5359,7 @@
         <v>0.9939594331382255</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9812248727146022</v>
+        <v>0.9814350871058427</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -5371,19 +5371,19 @@
         <v>666941</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>659336</v>
+        <v>660541</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>670118</v>
+        <v>670143</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9921159999567158</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9808030633018466</v>
+        <v>0.9825955857619046</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9968416360002011</v>
+        <v>0.9968792760415546</v>
       </c>
     </row>
     <row r="33">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6367</v>
+        <v>6613</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00342414144563574</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01715121487224175</v>
+        <v>0.01781573444806659</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6387</v>
+        <v>6349</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002096548760757903</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01053439425675812</v>
+        <v>0.01047179542082323</v>
       </c>
     </row>
     <row r="37">
@@ -5645,7 +5645,7 @@
         <v>369938</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>364842</v>
+        <v>364596</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>371209</v>
@@ -5654,7 +5654,7 @@
         <v>0.9965758585543643</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9828487851277582</v>
+        <v>0.9821842655519347</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -5666,7 +5666,7 @@
         <v>604998</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>599882</v>
+        <v>599920</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>606269</v>
@@ -5675,7 +5675,7 @@
         <v>0.9979034512392421</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9894656057432418</v>
+        <v>0.9895282045791767</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -5783,19 +5783,19 @@
         <v>3126</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>8990</v>
+        <v>8654</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.000916382315565135</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0002955418389579387</v>
+        <v>0.0002941037796982606</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.002635414163114389</v>
+        <v>0.002536965543976975</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3</v>
@@ -5804,19 +5804,19 @@
         <v>3126</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>8372</v>
+        <v>8314</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0004647480634722866</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0001494502215636838</v>
+        <v>0.000149606302619143</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.001244654615026064</v>
+        <v>0.001236049293121655</v>
       </c>
     </row>
     <row r="40">
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7395</v>
+        <v>8405</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0006353613963455139</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.002230847996549614</v>
+        <v>0.002535522733566361</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4021</v>
+        <v>4669</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0002709302297208436</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.001178852583975388</v>
+        <v>0.001368750164057242</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -5875,19 +5875,19 @@
         <v>3030</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8625</v>
+        <v>8065</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.000450538232387672</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0001372411563377017</v>
+        <v>0.0001371244247764709</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.001282221476927174</v>
+        <v>0.001198944718772212</v>
       </c>
     </row>
     <row r="41">
@@ -5904,19 +5904,19 @@
         <v>23494</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14617</v>
+        <v>14825</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>35491</v>
+        <v>35676</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007087035999227424</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004409273821917155</v>
+        <v>0.00447205912908455</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01070601318270951</v>
+        <v>0.01076184272166633</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -5925,19 +5925,19 @@
         <v>8962</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4614</v>
+        <v>4155</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16568</v>
+        <v>17059</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002627167341459203</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001352571546998968</v>
+        <v>0.001217914577801229</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.004856810729580491</v>
+        <v>0.005000636427744375</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>30</v>
@@ -5946,19 +5946,19 @@
         <v>32456</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>22228</v>
+        <v>21903</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>45706</v>
+        <v>45784</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004825190384321293</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003304558166128699</v>
+        <v>0.003256250156746287</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.006795011372864064</v>
+        <v>0.006806619402515391</v>
       </c>
     </row>
     <row r="42">
@@ -5975,19 +5975,19 @@
         <v>3289454</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3276598</v>
+        <v>3276688</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3298950</v>
+        <v>3298491</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9922776026044271</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9883995075419447</v>
+        <v>0.9884266476986872</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9951422216287852</v>
+        <v>0.9950035653769209</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3205</v>
@@ -5996,19 +5996,19 @@
         <v>3398299</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3389358</v>
+        <v>3389448</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3403745</v>
+        <v>3404211</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9961855201132548</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9935646965495846</v>
+        <v>0.9935911523431925</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9977821696980299</v>
+        <v>0.9979186610667246</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6333</v>
@@ -6017,19 +6017,19 @@
         <v>6687752</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6672812</v>
+        <v>6672896</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6698917</v>
+        <v>6699039</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9942595233198187</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9920382845595517</v>
+        <v>0.9920507853162511</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9959193184005308</v>
+        <v>0.9959374488346675</v>
       </c>
     </row>
     <row r="43">
